--- a/pics_to_discuss/bxyl_pics/bxyl-LM_weighted_gibbs.xlsx
+++ b/pics_to_discuss/bxyl_pics/bxyl-LM_weighted_gibbs.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\justi\Desktop\pics_to_discuss\bxyl_pics\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\justi\Desktop\Winter 2017\Research\codes\python\qm_utils\pucker_prog_data\pics_to_discuss\bxyl_pics\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11985" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16815" windowHeight="9435" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="bxyl-LM_weighted_gibbs" sheetId="1" r:id="rId1"/>
@@ -1661,7 +1661,7 @@
         <v>6.3173734996668696</v>
       </c>
       <c r="E11">
-        <v>2.72129430450051</v>
+        <v>2.7212943045004998</v>
       </c>
       <c r="F11">
         <v>5.2108347359999803</v>
@@ -1806,7 +1806,7 @@
         <v>0.30084851263316498</v>
       </c>
       <c r="E16">
-        <v>0.69260155029294002</v>
+        <v>0.69264792157936095</v>
       </c>
       <c r="F16">
         <v>0.392295199356544</v>
@@ -2082,7 +2082,7 @@
         <v>9</v>
       </c>
       <c r="K5" s="11">
-        <v>2.72129430450051</v>
+        <v>2.7212943045004998</v>
       </c>
       <c r="L5" s="11">
         <v>3.5000935612573199</v>
@@ -2097,7 +2097,7 @@
         <v>9</v>
       </c>
       <c r="P5" s="12">
-        <v>0.69260155029294002</v>
+        <v>0.69264792157936095</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.45">
